--- a/assets/templates/MT_Stock_Tracker.xlsx
+++ b/assets/templates/MT_Stock_Tracker.xlsx
@@ -15,7 +15,7 @@
     <sheet name="STORE FILE" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'STORE FILE'!$A$8:$T$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'STORE FILE'!$A$8:$U$119</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>A</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>PAPAYA</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +417,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,22 +435,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -730,7 +719,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:BY100"/>
+  <dimension ref="A1:BZ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -748,29 +737,29 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="39" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="44" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="9.140625" collapsed="1"/>
-    <col min="46" max="46" width="10.7109375" customWidth="1"/>
-    <col min="47" max="47" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="55" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="60" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="8.85546875" collapsed="1"/>
-    <col min="63" max="63" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="71" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="72" max="72" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="73" max="76" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="77" width="9.140625" collapsed="1"/>
-    <col min="78" max="78" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="45" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="9.140625" collapsed="1"/>
+    <col min="47" max="47" width="10.7109375" customWidth="1"/>
+    <col min="48" max="48" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="56" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="61" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="8.85546875" collapsed="1"/>
+    <col min="64" max="64" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="72" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="73" max="73" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="77" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="9.140625" collapsed="1"/>
+    <col min="79" max="79" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,7 +767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -791,13 +780,13 @@
       <c r="F2" s="2">
         <v>20</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -821,7 +810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
@@ -842,11 +831,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>30</v>
       </c>
@@ -855,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:76" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="K7" s="11" t="s">
@@ -864,57 +853,58 @@
       <c r="L7" s="12">
         <v>43467</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="M7" s="16"/>
+      <c r="V7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AC7" s="12" t="s">
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AD7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AM7" s="16" t="s">
+      <c r="AN7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16" t="s">
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AT7" s="12" t="s">
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AU7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BC7" s="16" t="s">
+      <c r="BD7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16" t="s">
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BJ7" s="12" t="s">
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BK7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="BS7" s="16" t="s">
+      <c r="BT7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="BT7" s="16"/>
-      <c r="BU7" s="16"/>
-      <c r="BV7" s="16" t="s">
+      <c r="BU7" s="17"/>
+      <c r="BV7" s="17"/>
+      <c r="BW7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="BW7" s="16"/>
-      <c r="BX7" s="16"/>
+      <c r="BX7" s="17"/>
+      <c r="BY7" s="17"/>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -947,190 +937,193 @@
         <v>29</v>
       </c>
       <c r="L8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="P8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="Q8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="R8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="S8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="T8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="U8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="V8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="W8" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="Y8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Z8" s="13" t="s">
+      <c r="AA8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="13" t="s">
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AE8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AH8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AI8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AI8" s="13" t="s">
+      <c r="AJ8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AJ8" s="13" t="s">
+      <c r="AK8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AK8" s="13" t="s">
+      <c r="AL8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="13" t="s">
+      <c r="AM8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="13" t="s">
+      <c r="AN8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AN8" s="13" t="s">
+      <c r="AO8" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="AO8" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="AP8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="AQ8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AR8" s="13" t="s">
+      <c r="AS8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="13" t="s">
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AU8" s="13" t="s">
+      <c r="AV8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AV8" s="13" t="s">
+      <c r="AW8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AW8" s="13" t="s">
+      <c r="AX8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AX8" s="13" t="s">
+      <c r="AY8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AY8" s="13" t="s">
+      <c r="AZ8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AZ8" s="13" t="s">
+      <c r="BA8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="BA8" s="13" t="s">
+      <c r="BB8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BB8" s="13" t="s">
+      <c r="BC8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="BC8" s="13" t="s">
+      <c r="BD8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BD8" s="13" t="s">
+      <c r="BE8" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="BE8" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="BF8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="BG8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BH8" s="13" t="s">
+      <c r="BI8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="13" t="s">
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="BK8" s="13" t="s">
+      <c r="BL8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BL8" s="13" t="s">
+      <c r="BM8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BM8" s="13" t="s">
+      <c r="BN8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BN8" s="13" t="s">
+      <c r="BO8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BO8" s="13" t="s">
+      <c r="BP8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BP8" s="13" t="s">
+      <c r="BQ8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="BQ8" s="13" t="s">
+      <c r="BR8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BR8" s="13" t="s">
+      <c r="BS8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="BS8" s="13" t="s">
+      <c r="BT8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BT8" s="13" t="s">
+      <c r="BU8" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="BU8" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="BV8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="BW8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BX8" s="13" t="s">
+      <c r="BY8" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1215,15 +1208,15 @@
     <sortCondition ref="B18:B116"/>
   </sortState>
   <mergeCells count="9">
-    <mergeCell ref="BC7:BE7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BS7:BU7"/>
-    <mergeCell ref="BV7:BX7"/>
+    <mergeCell ref="BD7:BF7"/>
+    <mergeCell ref="BG7:BI7"/>
+    <mergeCell ref="BT7:BV7"/>
+    <mergeCell ref="BW7:BY7"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AN7:AP7"/>
+    <mergeCell ref="AQ7:AS7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/assets/templates/MT_Stock_Tracker.xlsx
+++ b/assets/templates/MT_Stock_Tracker.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\eat_erp\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp64\www\eat_erp\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7776"/>
   </bookViews>
   <sheets>
     <sheet name="STORE FILE" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'STORE FILE'!$A$8:$U$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'STORE FILE'!$A$11:$U$122</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>A</t>
   </si>
@@ -86,9 +86,6 @@
     <t>HYPERCITY</t>
   </si>
   <si>
-    <t>AS PER STORE FILE</t>
-  </si>
-  <si>
     <t>DIFF</t>
   </si>
   <si>
@@ -156,13 +153,38 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>WHOLESOME HABITS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MT STORE TRACKER - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REGION</t>
+    </r>
+  </si>
+  <si>
+    <t>Date - 05-06-2019 to 05-06-2019</t>
+  </si>
+  <si>
+    <t>Stores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +214,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +294,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -344,6 +421,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -351,7 +448,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -364,14 +461,78 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -381,12 +542,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -396,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,27 +574,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -719,504 +911,561 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:BZ100"/>
+  <dimension ref="A1:BZ103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="40" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="45" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="9.140625" collapsed="1"/>
-    <col min="47" max="47" width="10.7109375" customWidth="1"/>
-    <col min="48" max="48" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="56" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="61" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="8.85546875" collapsed="1"/>
-    <col min="64" max="64" width="9.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="72" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="73" max="73" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="77" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="9.140625" collapsed="1"/>
-    <col min="79" max="79" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="8" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="22" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="12.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="27" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="8.88671875" collapsed="1"/>
+    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="12.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="45" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="9.109375" collapsed="1"/>
+    <col min="47" max="47" width="10.6640625" customWidth="1"/>
+    <col min="48" max="48" width="9.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="56" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="12.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="61" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="8.88671875" collapsed="1"/>
+    <col min="64" max="64" width="9.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="72" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="73" max="73" width="12.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="77" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="9.109375" collapsed="1"/>
+    <col min="79" max="79" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:77" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F5" s="2">
         <v>40</v>
       </c>
+      <c r="I5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
-    <row r="2" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="29">
+        <f>COUNTIF($B$12:$B$122,B6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="29">
+        <f>COUNTIF($B$12:$B$122,B7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <f>COUNTIF(I11:I10000,I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <f>COUNTIF(I11:I10000,J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f>I7+J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="18">
+        <f>SUM(C6:C7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="11">
+        <v>43467</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="V10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AD10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AU10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BK10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU10" s="19"/>
+      <c r="BV10" s="19"/>
+      <c r="BW10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="BX10" s="19"/>
+      <c r="BY10" s="19"/>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="H11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BR11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BW11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY11" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
-        <f>COUNTIF($B$9:$B$119,B3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10">
-        <f>COUNTIF($B$9:$B$119,B4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <f>COUNTIF(I8:I1048576,I3)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f>COUNTIF(I9:I1048576,J3)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <f>I4+J4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="14">
-        <f>SUM(C3:C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:77" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="K7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="12">
-        <v>43467</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="V7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AD7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AU7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BK7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="BT7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU7" s="17"/>
-      <c r="BV7" s="17"/>
-      <c r="BW7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX7" s="17"/>
-      <c r="BY7" s="17"/>
-    </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BJ8" s="15"/>
-      <c r="BK8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BQ8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BR8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="BS8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="BT8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="BU8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BY8" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A18:F116">
     <sortCondition ref="B18:B116"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="BD7:BF7"/>
-    <mergeCell ref="BG7:BI7"/>
-    <mergeCell ref="BT7:BV7"/>
-    <mergeCell ref="BW7:BY7"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AN7:AP7"/>
-    <mergeCell ref="AQ7:AS7"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="BD10:BF10"/>
+    <mergeCell ref="BG10:BI10"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="BW10:BY10"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="AQ10:AS10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
